--- a/Framework/Automation/common/Appium/src/TestData.xlsx
+++ b/Framework/Automation/common/Appium/src/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gs.automation.androidapp\Framework\Automation\common\Appium\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4CC06-14BB-4C12-8D6C-CF4EE9307183}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270DA3D-9190-4542-B4B9-C078D3D49DE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="1764" windowWidth="21480" windowHeight="10776" activeTab="1" xr2:uid="{75C52EA2-D5B5-4EE3-99E3-1ECC2B37CC4C}"/>
+    <workbookView xWindow="3192" yWindow="720" windowWidth="21480" windowHeight="10776" activeTab="1" xr2:uid="{75C52EA2-D5B5-4EE3-99E3-1ECC2B37CC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="11" r:id="rId1"/>
@@ -919,7 +919,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
     <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D459EA5-5539-45C1-B5E9-1383DF044803}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
